--- a/data/trans_dic/P33b_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R3-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 12,14</t>
+          <t>2,98; 12,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 9,03</t>
+          <t>1,82; 9,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 9,08</t>
+          <t>2,99; 8,59</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 9,57</t>
+          <t>3,36; 9,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,66; 13,68</t>
+          <t>7,85; 14,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,88</t>
+          <t>6,47; 10,83</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,72; 18,18</t>
+          <t>11,47; 17,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,55; 16,4</t>
+          <t>11,55; 16,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,41</t>
+          <t>12,27; 16,3</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,87; 18,73</t>
+          <t>11,85; 19,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,83; 25,6</t>
+          <t>19,66; 25,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,9; 21,39</t>
+          <t>16,61; 21,34</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,03; 21,12</t>
+          <t>15,09; 21,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,97; 33,84</t>
+          <t>27,91; 33,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,47; 26,68</t>
+          <t>22,09; 26,47</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,55; 28,92</t>
+          <t>23,41; 28,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,91; 35,19</t>
+          <t>22,1; 35,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,06; 31,5</t>
+          <t>22,24; 31,52</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,41; 17,21</t>
+          <t>14,42; 17,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,27; 22,86</t>
+          <t>19,3; 22,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,69; 19,83</t>
+          <t>17,62; 19,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R3-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 12,32</t>
+          <t>2,88; 12,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 9,23</t>
+          <t>1,83; 9,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,59</t>
+          <t>3,3; 9,08</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,53</t>
+          <t>3,55; 9,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,85; 14,1</t>
+          <t>7,66; 13,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,83</t>
+          <t>6,47; 10,88</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,47; 17,92</t>
+          <t>11,72; 18,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,55; 16,72</t>
+          <t>11,55; 16,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,3</t>
+          <t>12,27; 16,41</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,85; 19,13</t>
+          <t>11,87; 18,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,66; 25,83</t>
+          <t>19,83; 25,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,61; 21,34</t>
+          <t>16,9; 21,39</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,09; 21,11</t>
+          <t>15,03; 21,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,91; 33,74</t>
+          <t>27,97; 33,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,09; 26,47</t>
+          <t>22,47; 26,68</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,41; 28,89</t>
+          <t>23,55; 28,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,1; 35,49</t>
+          <t>21,91; 35,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,24; 31,52</t>
+          <t>23,06; 31,5</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,42; 17,13</t>
+          <t>14,41; 17,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,3; 22,82</t>
+          <t>19,27; 22,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,62; 19,86</t>
+          <t>17,69; 19,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R3-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,54%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 12,14</t>
+          <t>2,86; 12,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 9,03</t>
+          <t>1,81; 8,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 9,08</t>
+          <t>3,36; 9,15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>7,86%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 9,57</t>
+          <t>3,55; 9,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,66; 13,68</t>
+          <t>5,79; 12,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,88</t>
+          <t>5,73; 10,29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>14,14%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,72; 18,18</t>
+          <t>11,56; 17,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,55; 16,4</t>
+          <t>11,54; 16,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,41</t>
+          <t>12,25; 16,25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>16,28%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,87; 18,73</t>
+          <t>4,87; 17,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,83; 25,6</t>
+          <t>17,99; 24,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,9; 21,39</t>
+          <t>9,89; 19,89</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>23,94%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,03; 21,12</t>
+          <t>14,69; 20,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,97; 33,84</t>
+          <t>27,61; 33,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,47; 26,68</t>
+          <t>22,04; 26,2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>20,36%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,55; 28,92</t>
+          <t>16,99; 23,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,91; 35,19</t>
+          <t>7,92; 31,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,06; 31,5</t>
+          <t>9,72; 26,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>36,26%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>34,6%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,41; 17,21</t>
+          <t>27,84; 36,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,27; 22,86</t>
+          <t>33,32; 39,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,69; 19,83</t>
+          <t>31,89; 37,39</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>14,47%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>20,07%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11,21; 16,11</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>16,51; 21,86</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>15,15; 18,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P33b_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 12,29</t>
+          <t>2,97; 12,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 8,78</t>
+          <t>1,77; 8,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,15</t>
+          <t>3,23; 9,16</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 9,64</t>
+          <t>3,34; 9,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 12,72</t>
+          <t>5,9; 13,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,73; 10,29</t>
+          <t>5,73; 10,47</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,56; 17,96</t>
+          <t>11,24; 17,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,54; 16,32</t>
+          <t>11,55; 16,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,25; 16,25</t>
+          <t>12,4; 16,37</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 17,66</t>
+          <t>5,5; 17,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,99; 24,42</t>
+          <t>17,97; 24,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,89; 19,89</t>
+          <t>9,51; 19,99</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,69; 20,62</t>
+          <t>14,69; 21,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,61; 33,52</t>
+          <t>27,91; 33,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,04; 26,2</t>
+          <t>21,91; 26,01</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,99; 23,58</t>
+          <t>16,98; 23,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,92; 31,79</t>
+          <t>8,43; 31,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,72; 26,39</t>
+          <t>10,77; 26,67</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,84; 36,68</t>
+          <t>27,78; 36,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>33,32; 39,82</t>
+          <t>32,95; 39,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,89; 37,39</t>
+          <t>31,98; 37,01</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11,21; 16,11</t>
+          <t>11,35; 16,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,51; 21,86</t>
+          <t>16,13; 21,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,15; 18,8</t>
+          <t>15,08; 18,61</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se despierta demasiado temprano (de forma involuntaria)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25904</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13631</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>39536</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11894; 50096</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5533; 26537</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23036; 65301</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25808</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>47721</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>73529</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14135; 42208</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30176; 67082</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>53574; 97927</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>77608</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>74842</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>152451</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>60152; 96131</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>62629; 89764</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>133684; 176479</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>107558</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>153003</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>260560</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>48789; 157984</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>128041; 173578</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>152204; 319883</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>98440</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>166306</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>264746</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>82280; 117708</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>152285; 184708</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>242256; 287592</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>74275</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>124585</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>198861</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>62502; 86742</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>51264; 193735</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>105183; 260437</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>90737</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>154409</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>245146</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>78560; 102398</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>140294; 168699</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>226609; 262255</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1282</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1877</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>500330</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>734497</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1234827</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>392365; 556975</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>590412; 802979</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1073051; 1324385</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>